--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3409460.438109822</v>
+        <v>3405154.72173375</v>
       </c>
     </row>
     <row r="7">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>237.9332843063845</v>
       </c>
       <c r="I2" t="n">
-        <v>82.23853371059917</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>66.12354205134265</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>26.32882004050054</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>27.77238941128203</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>339.1102834028539</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>148.827124477626</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>95.29787616176787</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>25.2440099474196</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>12.74916063595687</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>117.978900664217</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>202.3860496764733</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695538</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>159.6155901915576</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1660,10 +1660,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>33.66638448559993</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1815,13 +1815,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>113.0992099793461</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444131</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>44.7513807668944</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>11.76284745948157</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>32.26041896250336</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>246.6599694082667</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>38.76543552489255</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>153.0598676525411</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3514,10 +3514,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>175.8628696806976</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>88.86833396296512</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>81.88270281562022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>87.7339084816273</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>843.3415311720269</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>843.3415311720269</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>485.0758325652764</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="E2" t="n">
-        <v>485.0758325652764</v>
+        <v>1276.695321531225</v>
       </c>
       <c r="F2" t="n">
-        <v>478.1303318160729</v>
+        <v>865.7094167416178</v>
       </c>
       <c r="G2" t="n">
-        <v>464.2069277546638</v>
+        <v>447.7456086398047</v>
       </c>
       <c r="H2" t="n">
-        <v>137.0122077906667</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.08070321196</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1229.941371236149</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4409,10 +4409,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598706</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>661.3375275889166</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>661.3375275889166</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>371.9203575519559</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>371.9203575519559</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="Y4" t="n">
-        <v>371.9203575519559</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1341.294330781294</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>972.3318138408822</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>614.0661152341316</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2669.096172420968</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2669.096172420968</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2669.096172420968</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2669.096172420968</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="W5" t="n">
-        <v>1714.760089042374</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X5" t="n">
-        <v>1341.294330781294</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y5" t="n">
-        <v>1341.294330781294</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931989</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>286.5323736931989</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>286.5323736931989</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>286.5323736931989</v>
+        <v>548.3816362947775</v>
       </c>
       <c r="X7" t="n">
-        <v>286.5323736931989</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2313.256251746442</v>
+        <v>1306.645299038032</v>
       </c>
       <c r="C8" t="n">
-        <v>1944.29373480603</v>
+        <v>937.6827820976202</v>
       </c>
       <c r="D8" t="n">
-        <v>1586.028036199279</v>
+        <v>579.4170834908698</v>
       </c>
       <c r="E8" t="n">
-        <v>1200.239783601035</v>
+        <v>193.6288308926256</v>
       </c>
       <c r="F8" t="n">
-        <v>789.2538788114275</v>
+        <v>186.6833301434222</v>
       </c>
       <c r="G8" t="n">
-        <v>372.1660970478549</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>109.8675491160735</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>785.3786496953994</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>972.0780625208071</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2671.650091071334</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2456.850229339045</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.134191782762</v>
+        <v>2456.850229339045</v>
       </c>
       <c r="V8" t="n">
-        <v>2326.134191782762</v>
+        <v>2456.850229339045</v>
       </c>
       <c r="W8" t="n">
-        <v>2313.256251746442</v>
+        <v>2456.850229339045</v>
       </c>
       <c r="X8" t="n">
-        <v>2313.256251746442</v>
+        <v>2083.384471077965</v>
       </c>
       <c r="Y8" t="n">
-        <v>2313.256251746442</v>
+        <v>1693.245139102154</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>793.1055844442423</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>972.6029207988471</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>510.040998651502</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>341.1048157235952</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>190.9881763112594</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>190.9881763112594</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>190.9881763112594</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4995,19 +4995,19 @@
         <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>764.7254868573889</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>510.040998651502</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>510.040998651502</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>510.040998651502</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>510.040998651502</v>
+        <v>849.4473100711502</v>
       </c>
     </row>
     <row r="11">
@@ -5029,25 +5029,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5074,13 +5074,13 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>2418.621364762389</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>2913.946970978148</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>3511.3254586047</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>4138.923422159307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>4690.833152398593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>4690.833152398593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135296</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1816.233211630147</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1561.54872342426</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1272.131553387299</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.131553387299</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.338974243769</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5266,13 +5266,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5284,22 +5284,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5308,7 +5308,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5360,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2515.675093211831</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>985.7836617409695</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>816.8474788130626</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>666.7308394007268</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>518.8177458183337</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1388.224705714739</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1167.432126571209</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,19 +5509,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5533,16 +5533,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474785</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349515</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061504</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.70136564882</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1319.459739407056</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263526</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5740,19 +5740,19 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5770,19 +5770,19 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191926</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349515</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061504</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P21" t="n">
         <v>2516.421633107662</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3007.624207651099</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>2838.688024723192</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>2793.484609807138</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>2793.484609807138</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309227</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024107</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>4690.833152398594</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T22" t="n">
-        <v>4471.231687421536</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U22" t="n">
-        <v>4182.156460765734</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>3927.471972559847</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>3638.054802522886</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>3410.065251624869</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>3189.272672481339</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452603</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718124</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.528408326419</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
         <v>2129.438138565707</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6156,7 +6156,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
@@ -6165,13 +6165,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487568</v>
@@ -6189,10 +6189,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1132.402531511373</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6223,28 +6223,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349515</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3403484614396</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4041655335327</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>664.2875261211969</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6393,7 +6393,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6402,34 +6402,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614396</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614396</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191926</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969299</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>620.8230468926974</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000582</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6630,7 +6630,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6639,34 +6639,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1795.355300007332</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1540.670811801445</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1251.253641764485</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1023.264090866467</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>802.4715117229372</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>944.1833428807391</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6928,58 +6928,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075796</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2042.456618565808</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1753.381391910006</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.696903704119</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.279733667159</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,19 +7171,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7219,7 +7219,7 @@
         <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>139.234765840794</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>139.234765840794</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L39" t="n">
-        <v>634.5603720565526</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3260.450525729773</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C40" t="n">
-        <v>3091.514342801866</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D40" t="n">
-        <v>2941.397703389531</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>2793.484609807138</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>2646.594662309227</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>2479.398563024107</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4623.787448650996</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>4404.185983673938</v>
+        <v>2019.423283183833</v>
       </c>
       <c r="U40" t="n">
-        <v>4115.110757018136</v>
+        <v>1730.34805652803</v>
       </c>
       <c r="V40" t="n">
-        <v>3860.426268812249</v>
+        <v>1475.663568322143</v>
       </c>
       <c r="W40" t="n">
-        <v>3571.009098775288</v>
+        <v>1186.246398285183</v>
       </c>
       <c r="X40" t="n">
-        <v>3481.243104873303</v>
+        <v>958.2568473871653</v>
       </c>
       <c r="Y40" t="n">
-        <v>3260.450525729773</v>
+        <v>737.4642682436352</v>
       </c>
     </row>
     <row r="41">
@@ -7402,22 +7402,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7490,22 +7490,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1031.260321675049</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>862.3241387471426</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.701365648819</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1433.701365648819</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>1212.908786505289</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7669,7 +7669,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>1501.8401750111</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3025.224490384403</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>2856.288307456496</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>2856.288307456496</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>2708.375213874103</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>2561.485266376193</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4199.756743499038</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3945.072255293151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3655.65508525619</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3427.665534358173</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3206.872955214643</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>35.04072454780376</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>312.2066704284447</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>275.2571720225999</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-1.26924431238921e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>-2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>-2.387423592153937e-12</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>126.5688841976865</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>111.7546635373313</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>112.6104454096911</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>103.864092251318</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9468079295556</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>114.1735436840658</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>39.52450498097741</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>179.8192178272022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>64.34558267474713</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>41.54258064659064</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>136.841321426072</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>66.73277020259214</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>198.4505659076169</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>690954.161456604</v>
+        <v>690954.1614566039</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>690954.161456604</v>
+        <v>690954.1614566039</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>690954.161456604</v>
+        <v>690954.1614566039</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>690954.161456604</v>
+        <v>690954.1614566039</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>690954.161456604</v>
+        <v>690954.1614566039</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.9397210049</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="J2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="F2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="G2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.9397210052</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210055</v>
       </c>
       <c r="M2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="O2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
     </row>
     <row r="3">
@@ -26374,16 +26374,16 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808063</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,40 +26423,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682697</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5677.536566682718</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5677.536566682729</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="L4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5677.536566682724</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682697</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682712</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682707</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682744</v>
       </c>
       <c r="M4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682727</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682744</v>
@@ -26527,43 +26527,43 @@
         <v>446156.099351412</v>
       </c>
       <c r="D6" t="n">
-        <v>290352.2932576173</v>
+        <v>290352.2932576176</v>
       </c>
       <c r="E6" t="n">
-        <v>-151420.8180503907</v>
+        <v>-151768.1973047481</v>
       </c>
       <c r="F6" t="n">
-        <v>619631.8733304155</v>
+        <v>619284.4940760582</v>
       </c>
       <c r="G6" t="n">
-        <v>619631.8733304152</v>
+        <v>619284.4940760585</v>
       </c>
       <c r="H6" t="n">
-        <v>619631.8733304152</v>
+        <v>619284.4940760586</v>
       </c>
       <c r="I6" t="n">
-        <v>619631.8733304157</v>
+        <v>619284.4940760585</v>
       </c>
       <c r="J6" t="n">
-        <v>443208.6541378227</v>
+        <v>442861.2748834656</v>
       </c>
       <c r="K6" t="n">
-        <v>619631.8733304155</v>
+        <v>619284.4940760589</v>
       </c>
       <c r="L6" t="n">
-        <v>619631.873330416</v>
+        <v>619284.4940760584</v>
       </c>
       <c r="M6" t="n">
-        <v>495423.3626223568</v>
+        <v>495075.9833679997</v>
       </c>
       <c r="N6" t="n">
-        <v>619631.8733304157</v>
+        <v>619284.4940760583</v>
       </c>
       <c r="O6" t="n">
-        <v>619631.8733304153</v>
+        <v>619284.4940760585</v>
       </c>
       <c r="P6" t="n">
-        <v>619631.8733304155</v>
+        <v>619284.4940760584</v>
       </c>
     </row>
   </sheetData>
@@ -26804,10 +26804,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
@@ -26974,10 +26974,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>85.98948845797261</v>
       </c>
       <c r="I2" t="n">
-        <v>69.69278253426208</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27593,16 +27593,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>220.1583321906351</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>199.3808353485366</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>26.70601316352967</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>10.13068531455912</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>137.695873858965</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>123.2867771903269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.4088771807206</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>336.4918080814562</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>48.94187589035342</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28034,7 +28034,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28067,10 +28067,10 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>16.19860367562146</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -31840,31 +31840,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305189</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>716.71805534327</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,19 +32089,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>558.3177848342789</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>151.9914336104064</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32505,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,28 +32548,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>579.8936048175462</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>447.1326187913569</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,7 +32578,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32645,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,40 +32700,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32742,7 +32742,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,28 +32785,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963271</v>
+        <v>513.0745614164387</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,7 +32815,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32882,7 +32882,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32979,7 +32979,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,25 +33022,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>597.170955974472</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,7 +33052,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33119,7 +33119,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663262</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33216,7 +33216,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,37 +33259,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>433.9798411722581</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.87657862147</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33356,7 +33356,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,16 +33760,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>170.9292585737929</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>209.9499448422518</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34210,7 +34210,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34219,16 +34219,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
-        <v>187.2159464875253</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>726.7533607666135</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>56.4894619148576</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>508.5038551678209</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>413.872927594008</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35272,7 +35272,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561599</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367759</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>20.64972152707313</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>448.551892734213</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>313.1582113770266</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36290,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902405</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164529</v>
+        <v>374.5201816365645</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36527,7 +36527,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243139</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>455.0369220524537</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36764,7 +36764,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396399</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>291.8458072502398</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071398</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -37001,7 +37001,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367785</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>44.09163190712617</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>71.39556506237764</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37858,7 +37858,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37867,16 +37867,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
-        <v>55.87423440419198</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>584.6193268445951</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3405154.72173375</v>
+        <v>3406915.252036537</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>84.93489990391507</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>237.9332843063845</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,13 +715,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>134.6751203255735</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>26.32882004050054</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>396.965365436302</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>27.77238941128203</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>144.577399146572</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>148.827124477626</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>25.2440099474196</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>89.44403296455927</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>49.94675160484172</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764733</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>227.5037279512935</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>1.799772605716168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2092,10 +2092,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>55.52079624060465</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>99.97427419833861</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>175.8628696806976</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.48357412947</v>
+        <v>1507.939751500713</v>
       </c>
       <c r="C2" t="n">
-        <v>1662.48357412947</v>
+        <v>1507.939751500713</v>
       </c>
       <c r="D2" t="n">
-        <v>1662.48357412947</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1276.695321531225</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>865.7094167416178</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>447.7456086398047</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1894.539591564834</v>
       </c>
     </row>
     <row r="3">
@@ -4400,40 +4400,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>519.8857516585174</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C4" t="n">
-        <v>350.9495687306105</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>701.5342164887571</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>701.5342164887571</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>1732.352951779449</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>1346.564699181205</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>935.5787943915973</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2669.096172420968</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2669.096172420968</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2669.096172420968</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2669.096172420968</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2338.033285077397</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>2338.033285077397</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X5" t="n">
-        <v>1964.567526816317</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>2090.6186503862</v>
       </c>
     </row>
     <row r="6">
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>368.9169416640007</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>199.9807587360937</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>199.9807587360937</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W7" t="n">
-        <v>548.3816362947775</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X7" t="n">
-        <v>320.3920853967602</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.5995062532301</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1306.645299038032</v>
+        <v>2063.986705405919</v>
       </c>
       <c r="C8" t="n">
-        <v>937.6827820976202</v>
+        <v>2063.986705405919</v>
       </c>
       <c r="D8" t="n">
-        <v>579.4170834908698</v>
+        <v>1705.721006799168</v>
       </c>
       <c r="E8" t="n">
-        <v>193.6288308926256</v>
+        <v>1319.932754200924</v>
       </c>
       <c r="F8" t="n">
-        <v>186.6833301434222</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
         <v>173.6359524202537</v>
@@ -4810,10 +4810,10 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>785.3786496953994</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>972.0780625208071</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
         <v>1475.49687913695</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2671.650091071334</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2456.850229339045</v>
+        <v>2450.586545470041</v>
       </c>
       <c r="U8" t="n">
-        <v>2456.850229339045</v>
+        <v>2450.586545470041</v>
       </c>
       <c r="V8" t="n">
-        <v>2456.850229339045</v>
+        <v>2450.586545470041</v>
       </c>
       <c r="W8" t="n">
-        <v>2456.850229339045</v>
+        <v>2450.586545470041</v>
       </c>
       <c r="X8" t="n">
-        <v>2083.384471077965</v>
+        <v>2450.586545470041</v>
       </c>
       <c r="Y8" t="n">
-        <v>1693.245139102154</v>
+        <v>2450.586545470041</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1067.230262346898</v>
       </c>
       <c r="N9" t="n">
         <v>1432.170805967367</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>423.447068407922</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>254.510885480015</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>104.3942460676793</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>104.3942460676793</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -5004,10 +5004,10 @@
         <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>825.8881123816918</v>
       </c>
       <c r="Y10" t="n">
-        <v>849.4473100711502</v>
+        <v>605.0955332381617</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,19 +5035,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597619</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>411.9631215597619</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="14">
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5606,10 +5606,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5764,40 +5764,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1654.485273605118</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2206.395003844405</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.881471216014</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>949.9304447718132</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,28 +6223,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6256,7 +6256,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,28 +6694,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7031,13 +7031,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,52 +7162,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>555.8158034133954</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2019.423283183833</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1730.34805652803</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1475.663568322143</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1186.246398285183</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>958.2568473871653</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>737.4642682436352</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7417,16 +7417,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7499,10 +7499,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8458,13 +8458,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>312.2066704284447</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>167.9634363311153</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.26924431238921e-12</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>24.63391537253449</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>143.6212754172151</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>125.5054897610399</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>41.54258064659064</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>117.6820817884491</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778553</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210059</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210049</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="G2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="H2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="H2" t="n">
-        <v>726431.9397210055</v>
-      </c>
       <c r="I2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="J2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210052</v>
-      </c>
       <c r="M2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808063</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,25 +26423,25 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682786</v>
+      </c>
+      <c r="F4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>5677.536566682798</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682809</v>
+      </c>
+      <c r="I4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682718</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682729</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682744</v>
@@ -26453,13 +26453,13 @@
         <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>-143811.7798631326</v>
       </c>
       <c r="C6" t="n">
-        <v>446156.099351412</v>
+        <v>446156.0993514123</v>
       </c>
       <c r="D6" t="n">
         <v>290352.2932576176</v>
       </c>
       <c r="E6" t="n">
-        <v>-151768.1973047481</v>
+        <v>-151455.555975826</v>
       </c>
       <c r="F6" t="n">
-        <v>619284.4940760582</v>
+        <v>619597.1354049799</v>
       </c>
       <c r="G6" t="n">
-        <v>619284.4940760585</v>
+        <v>619597.1354049799</v>
       </c>
       <c r="H6" t="n">
-        <v>619284.4940760586</v>
+        <v>619597.1354049797</v>
       </c>
       <c r="I6" t="n">
-        <v>619284.4940760585</v>
+        <v>619597.1354049799</v>
       </c>
       <c r="J6" t="n">
-        <v>442861.2748834656</v>
+        <v>443173.9162123866</v>
       </c>
       <c r="K6" t="n">
-        <v>619284.4940760589</v>
+        <v>619597.1354049797</v>
       </c>
       <c r="L6" t="n">
-        <v>619284.4940760584</v>
+        <v>619597.1354049798</v>
       </c>
       <c r="M6" t="n">
-        <v>495075.9833679997</v>
+        <v>495388.6246969212</v>
       </c>
       <c r="N6" t="n">
-        <v>619284.4940760583</v>
+        <v>619597.1354049798</v>
       </c>
       <c r="O6" t="n">
-        <v>619284.4940760585</v>
+        <v>619597.1354049798</v>
       </c>
       <c r="P6" t="n">
-        <v>619284.4940760584</v>
+        <v>619597.1354049798</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>269.7481417167679</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>85.98948845797261</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,13 +27435,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>10.74592769735776</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>199.3808353485366</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>16.81880458449297</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>26.70601316352967</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>1.856563499997179</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>137.695873858965</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.4088771807206</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>123.2078301504067</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>95.47429641808952</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31837,34 +31837,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>716.71805534327</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,19 +32089,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32326,13 +32326,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P21" t="n">
-        <v>447.1326187913569</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>513.0745614164387</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>398.1179220955534</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>390.1398273256871</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,16 +33760,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>209.9499448422518</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34219,13 +34219,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34450,28 +34450,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35178,13 +35178,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>508.5038551678209</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35260,10 +35260,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>368.6268117378473</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>574.5840214212516</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35974,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P21" t="n">
-        <v>313.1582113770266</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>374.5201816365645</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>259.5635423156792</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>256.1654199113569</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>71.39556506237764</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37867,13 +37867,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
